--- a/data/trans_camb/P16B09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 3,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 2,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 3,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 3,33</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 3,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,17; 2,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 3,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 3,44</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,89</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,76</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 2,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 2,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 3,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 2,95</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 2,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 2,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 3,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 3,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,17</t>
+          <t>0,0; 8,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,04</t>
+          <t>0,0; 9,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,35</t>
+          <t>-3,12; 3,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,71</t>
+          <t>-6,69; 2,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,12</t>
+          <t>-2,15; 3,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,33</t>
+          <t>-4,36; 3,03</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,1</t>
+          <t>0,0; 9,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,16</t>
+          <t>0,0; 10,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,46</t>
+          <t>-3,15; 3,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 2,79</t>
+          <t>-6,88; 2,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,24</t>
+          <t>-2,18; 3,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 3,44</t>
+          <t>-4,36; 3,14</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,43</t>
+          <t>0,0; 21,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,6</t>
+          <t>0,0; 22,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,16</t>
+          <t>0,0; 9,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,89</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,68</t>
+          <t>0,0; 27,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,54</t>
+          <t>0,0; 28,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,31</t>
+          <t>0,0; 10,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,76</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,9</t>
+          <t>0,86; 7,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,88</t>
+          <t>0,86; 7,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,66</t>
+          <t>-2,54; 2,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,24</t>
+          <t>-5,73; 2,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,07</t>
+          <t>-1,18; 3,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,95</t>
+          <t>-2,29; 3,06</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,58</t>
+          <t>0,86; 8,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,56</t>
+          <t>0,86; 8,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,75</t>
+          <t>-2,56; 2,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,29</t>
+          <t>-5,83; 2,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,2</t>
+          <t>-1,18; 3,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,05</t>
+          <t>-2,32; 3,16</t>
         </is>
       </c>
     </row>
